--- a/biology/Zoologie/Granatelle_de_Pelzeln/Granatelle_de_Pelzeln.xlsx
+++ b/biology/Zoologie/Granatelle_de_Pelzeln/Granatelle_de_Pelzeln.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Granatellus pelzelni
 Le Granatelle de Pelzeln (Granatellus pelzelni) est une espèce de la famille des Cardinalidae.
@@ -512,9 +524,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces selon GBIF       (14 mai 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces selon GBIF       (14 mai 2021) :
 Granatellus pelzelni subsp. paraensis Rothschild, 1906
 Granatellus pelzelni subsp. pelzelni</t>
         </is>
@@ -544,10 +558,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Granatellus pelzelni P.L.Sclater, 1865[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Granatelle de Pelzeln[1],[2], Paruline de Pelzeln[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Granatellus pelzelni P.L.Sclater, 1865.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Granatelle de Pelzeln Paruline de Pelzeln.
 </t>
         </is>
       </c>
